--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2502180.446876856</v>
+        <v>2499886.851420261</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>72.94942429078201</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>117.2278100992617</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>114.70539891844</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>115.7664925502709</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>94.81275980261485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>343.4798709087818</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,13 +1054,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>80.50796942908525</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>45.06776172308889</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>120.7307820829407</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>218.8748435506846</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>71.6703719699171</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>15.42290135054921</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>81.07546534818415</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701328</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>114.0764389317978</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710053</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>99.97427419833815</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>60.42721558712929</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>201.6887504327739</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>4.019807611472697</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,13 +3241,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634824</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428253</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620684</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>40.5342109554691</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703276</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>194.9085394018866</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>53.65602513333643</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>94.05355358057936</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2175.739488336033</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>1806.776971395622</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>1448.511272788871</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>1062.723020190627</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>651.7371154010195</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>236.0323651253084</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2562.339328400155</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>2562.339328400155</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="3">
@@ -4401,34 +4401,34 @@
         <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.9138669598622</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C4" t="n">
-        <v>346.0498276483066</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1416.9268625292</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1193.948381723935</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>904.8300442277731</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>650.1455560218863</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.344461831649</v>
+        <v>650.1455560218863</v>
       </c>
       <c r="X4" t="n">
-        <v>864.354910933632</v>
+        <v>422.1560051238689</v>
       </c>
       <c r="Y4" t="n">
-        <v>643.5623317901019</v>
+        <v>201.3634259803388</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2071.975386180639</v>
+        <v>1887.813801820604</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1518.851284880192</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y5" t="n">
-        <v>2071.975386180639</v>
+        <v>1887.813801820604</v>
       </c>
     </row>
     <row r="6">
@@ -4635,19 +4635,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>463.6594280995009</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="C7" t="n">
-        <v>294.723245171594</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="D7" t="n">
-        <v>294.723245171594</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>1378.488599602889</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971288</v>
+        <v>1089.071429565929</v>
       </c>
       <c r="X7" t="n">
-        <v>866.1004720732708</v>
+        <v>861.0818786679114</v>
       </c>
       <c r="Y7" t="n">
-        <v>645.3078929297407</v>
+        <v>640.2892995243812</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1648.004869410821</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1279.042352470409</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>920.7766538636586</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363905</v>
+        <v>534.9884012654143</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678289</v>
+        <v>528.0429005162108</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052369</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3104.520121052924</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5030,37 +5030,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="14">
@@ -5267,49 +5267,49 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782887</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038273</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797674</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910802</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.56011257081</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279795</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853354</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580254</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832656</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.06254548756</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510501</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854699</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648812</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1433.701365648812</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>1205.711814750795</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>984.9192356072648</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5504,22 +5504,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5528,37 +5528,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5650,34 +5650,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362675</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,40 +6236,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>779.6143379232836</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,46 +6449,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2442.902671851501</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2260.047837506405</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2040.446372529346</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1751.371145873544</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6780,16 +6780,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438167</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,64 +6923,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479719</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797191</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.195150674524</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121652</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121652</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121652</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270452</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,64 +7160,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516145</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121652</v>
+        <v>472.9099533103044</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121652</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121652</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121652</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516145</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1804.131916132773</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
-        <v>2356.04164637206</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>862.0966395286528</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111695</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>691.195150674524</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963486</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>270.906955875391</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>270.906955875391</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515151</v>
+        <v>294.8344935184728</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>67.5400076700282</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>65.7555412501395</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>65.54986409393069</v>
+        <v>44.73700564187205</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>84.99383243580195</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>16.89590291932086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>62.35543909864896</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194133</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>126.7126101431587</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194129</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>57.22910392194137</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>164.9286282187583</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>46.24115926564453</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>796117.0941729408</v>
+        <v>796117.0941729407</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>796117.0941729409</v>
+        <v>796117.0941729408</v>
       </c>
     </row>
     <row r="11">
@@ -26314,46 +26314,46 @@
         <v>636307.3716448202</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="F2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="H2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="G2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625538.6147597546</v>
-      </c>
       <c r="I2" t="n">
+        <v>625538.6147597545</v>
+      </c>
+      <c r="J2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="K2" t="n">
-        <v>625538.6147597549</v>
-      </c>
       <c r="L2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121058</v>
+        <v>203438.7416121057</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>1.412581696058623e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605451</v>
+        <v>49110.09270605448</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.17909312024</v>
       </c>
       <c r="D4" t="n">
         <v>89134.17909312015</v>
@@ -26427,37 +26427,37 @@
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.14432176891</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
+        <v>9947.144321769001</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9947.14432176893</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9947.144321768912</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9947.144321768932</v>
+      </c>
+      <c r="K4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="H4" t="n">
-        <v>9947.144321768912</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
+        <v>9947.14432176889</v>
+      </c>
+      <c r="M4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="J4" t="n">
-        <v>9947.144321768883</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9947.144321768843</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9947.144321768897</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9947.144321768817</v>
-      </c>
       <c r="N4" t="n">
-        <v>9947.144321768883</v>
+        <v>9947.14432176885</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
     </row>
     <row r="5">
@@ -26500,7 +26500,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-709312.5947781659</v>
+        <v>-709312.594778166</v>
       </c>
       <c r="C6" t="n">
-        <v>235800.5103782001</v>
+        <v>235800.5103782002</v>
       </c>
       <c r="D6" t="n">
-        <v>439239.2519903058</v>
+        <v>439239.2519903061</v>
       </c>
       <c r="E6" t="n">
-        <v>189056.4788067236</v>
+        <v>189021.7408812879</v>
       </c>
       <c r="F6" t="n">
-        <v>514468.9406140787</v>
+        <v>514434.2026886433</v>
       </c>
       <c r="G6" t="n">
-        <v>514468.9406140786</v>
+        <v>514434.2026886431</v>
       </c>
       <c r="H6" t="n">
-        <v>514468.9406140786</v>
+        <v>514434.2026886431</v>
       </c>
       <c r="I6" t="n">
-        <v>514468.9406140787</v>
+        <v>514434.2026886428</v>
       </c>
       <c r="J6" t="n">
-        <v>346863.7628040962</v>
+        <v>346829.0248786605</v>
       </c>
       <c r="K6" t="n">
-        <v>465358.8479080244</v>
+        <v>465324.1099825886</v>
       </c>
       <c r="L6" t="n">
-        <v>514468.9406140788</v>
+        <v>514434.2026886429</v>
       </c>
       <c r="M6" t="n">
-        <v>429413.9126785671</v>
+        <v>429379.1747531312</v>
       </c>
       <c r="N6" t="n">
-        <v>514468.9406140788</v>
+        <v>514434.202688643</v>
       </c>
       <c r="O6" t="n">
-        <v>514468.9406140788</v>
+        <v>514434.202688643</v>
       </c>
       <c r="P6" t="n">
-        <v>514468.9406140788</v>
+        <v>514434.2026886429</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26814,16 +26814,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="N4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973555</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>309.7844173726986</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>183.7907424631437</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>52.54142218018781</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>78.89596781146655</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,16 +27616,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>270.4601319683927</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>11.20317071190118</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>65.92599321748392</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>207.0698816007391</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>290.1909435705127</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>32.1203284082174</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911113</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>271.1000969860418</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28381,10 +28381,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-6.97563488453549e-12</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1.426432704165788e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,10 +31838,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,7 +31850,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>567.4250434254225</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,7 +31859,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>538.5853835133132</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>728.6709493241816</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32552,25 +32552,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>709.4760096096878</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>510.682889626564</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33181,34 +33181,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622658</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236531</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>444.2274915982885</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>651.5998000366021</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437245</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P42" t="n">
-        <v>295.974394015948</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750473</v>
+        <v>544.5140226420051</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,7 +35498,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>436.0833313420891</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>396.4513495912949</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326294635</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>597.3292372408483</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>578.1342975263545</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>368.5488557045456</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402476</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683835</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>302.0934576762701</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>509.0035555921577</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992801</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P42" t="n">
-        <v>161.9999866016177</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
